--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47957CC6-CE94-4FED-B2D8-69F3330AF797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2019661-6C48-4B76-8523-584BF03615D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -504,9 +504,6 @@
     <t>1F - 3F - 14F - 16 - 17</t>
   </si>
   <si>
-    <t>1F - 3F - 15T - 15 - 17</t>
-  </si>
-  <si>
     <t>1T - 2 - 17</t>
   </si>
   <si>
@@ -547,6 +544,69 @@
   </si>
   <si>
     <t>!isRepeated() &amp;&amp; current.before(time) &amp;&amp; isActive()</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>current = 12.04.2024</t>
+  </si>
+  <si>
+    <t>current = 18.04.2024</t>
+  </si>
+  <si>
+    <t>interval = 0, current = 12.04.2024</t>
+  </si>
+  <si>
+    <t>11.04.2024</t>
+  </si>
+  <si>
+    <t>1, 3, 14, 15</t>
+  </si>
+  <si>
+    <t>1F - 3F - 14T - 15 - 17</t>
+  </si>
+  <si>
+    <t>F01_TC03</t>
+  </si>
+  <si>
+    <t>F01_TC04</t>
+  </si>
+  <si>
+    <t>F01_TC05</t>
+  </si>
+  <si>
+    <t>F01_TC06</t>
+  </si>
+  <si>
+    <t>interval = 0, current = 16.04.2024</t>
+  </si>
+  <si>
+    <t>1, 3, 14, 16</t>
+  </si>
+  <si>
+    <t>Task: name = "task", time = "16.04.2024",  start = "11.04.2024",  end = "15.04.2024", interval = 1, active = true</t>
+  </si>
+  <si>
+    <t>current = 10.04.2024</t>
+  </si>
+  <si>
+    <t>16.04.2024</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>current.before(start)</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 5, 7, 8, 9, 10</t>
   </si>
 </sst>
 </file>
@@ -665,13 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
@@ -690,6 +743,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1281,12 +1340,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1323,8 +1376,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,50 +1388,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,23 +1474,74 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1427,12 +1564,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1448,9 +1579,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,91 +1586,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,15 +2077,15 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2044,21 +2103,21 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="27" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2067,13 +2126,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="27">
         <v>234</v>
       </c>
     </row>
@@ -2082,13 +2141,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="27">
         <v>234</v>
       </c>
     </row>
@@ -2099,13 +2158,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="27">
         <v>234</v>
       </c>
     </row>
@@ -2118,7 +2177,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="1"/>
@@ -2152,8 +2211,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,383 +2224,394 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="I6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="Q6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="I8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="36">
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="Q9" s="46" t="s">
+      <c r="C9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="38"/>
+      <c r="Q9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="36" t="s">
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="50" t="s">
+      <c r="C10" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="36" t="s">
+      <c r="S10" s="57"/>
+      <c r="T10" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="C11" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="42" t="s">
+      <c r="C13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="Q13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="34" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="Q15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="37" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="Q16" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="108" t="s">
+      <c r="R16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="Q17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="Q18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="Q19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="108" t="s">
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="Q20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" s="108" t="s">
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="Q21" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21" s="109" t="s">
+      <c r="S21" s="60"/>
+      <c r="T21" s="61"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="Q22" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="S21" s="110"/>
-      <c r="T21" s="111"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-      <c r="Q22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="109" t="s">
+      <c r="S22" s="60"/>
+      <c r="T22" s="61"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="Q23" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="S22" s="110"/>
-      <c r="T22" s="111"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="Q23" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="109" t="s">
+      <c r="S23" s="60"/>
+      <c r="T23" s="61"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="Q24" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="S23" s="110"/>
-      <c r="T23" s="111"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
-      <c r="Q24" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2558,19 +2628,8 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2582,238 +2641,251 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AI16"/>
+  <dimension ref="B1:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="19" width="39.28515625" customWidth="1"/>
-    <col min="20" max="22" width="8.85546875" customWidth="1"/>
-    <col min="29" max="29" width="5" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" customWidth="1"/>
-    <col min="33" max="33" width="7.28515625" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="6.5703125" customWidth="1"/>
+    <col min="9" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="39.28515625" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="33.5703125" customWidth="1"/>
+    <col min="22" max="24" width="8.85546875" customWidth="1"/>
+    <col min="31" max="31" width="5" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-    </row>
-    <row r="7" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="63" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+    </row>
+    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="64" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="65" t="s">
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-    </row>
-    <row r="8" spans="2:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
-      <c r="C8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62" t="s">
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+    </row>
+    <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="62"/>
+      <c r="C8" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62" t="s">
+      <c r="I8" s="71"/>
+      <c r="J8" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
+      <c r="M8" s="71"/>
+      <c r="N8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
+      <c r="O8" s="71"/>
+      <c r="P8" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="112" t="s">
+      <c r="Q8" s="67"/>
+      <c r="R8" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="62" t="s">
+      <c r="S8" s="71"/>
+      <c r="T8" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="S8" s="113"/>
-      <c r="T8" s="64" t="s">
+      <c r="U8" s="67"/>
+      <c r="V8" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="64" t="s">
+      <c r="W8" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="64" t="s">
+      <c r="X8" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="Y8" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="Z8" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="AA8" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="AB8" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AC8" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AD8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="AC8" s="65">
+      <c r="AE8" s="68">
         <v>0</v>
       </c>
-      <c r="AD8" s="65">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="65">
+      <c r="AF8" s="68">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="68">
         <v>2</v>
       </c>
-      <c r="AF8" s="65" t="s">
+      <c r="AH8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AG8" s="65" t="s">
+      <c r="AI8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AH8" s="65" t="s">
+      <c r="AJ8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AI8" s="65" t="s">
+      <c r="AK8" s="68" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="63"/>
+    <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
@@ -2856,35 +2928,45 @@
       <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-    </row>
-    <row r="10" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+    </row>
+    <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -2898,38 +2980,50 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-    </row>
-    <row r="11" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+    </row>
+    <row r="11" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -2940,34 +3034,52 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="T11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11" s="17"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="X11" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-    </row>
-    <row r="12" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+    </row>
+    <row r="12" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
+        <v>117</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -2978,35 +3090,55 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="W12" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-    </row>
-    <row r="13" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+    </row>
+    <row r="13" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -3016,64 +3148,92 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-    </row>
-    <row r="14" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+    </row>
+    <row r="14" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="P14" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
+      <c r="AB14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
+      <c r="AF14" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-    </row>
-    <row r="15" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+    </row>
+    <row r="15" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -3092,8 +3252,8 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
@@ -3101,56 +3261,59 @@
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-    </row>
-    <row r="16" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+    </row>
+    <row r="16" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E6:AI6"/>
+    <mergeCell ref="F7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E6:AK6"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="AF8:AF9"/>
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="T7:AB7"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3184,55 +3347,55 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="89"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="102"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3245,10 +3408,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="91"/>
+      <c r="I5" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="80"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3257,128 +3420,128 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="81" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="H6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="89"/>
+      <c r="K6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="H7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>11</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="E8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
+      <c r="H8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="H9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3386,7 +3549,7 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3402,10 +3565,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="91"/>
+      <c r="I10" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="80"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3430,127 +3593,144 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="103" t="s">
+      <c r="G13" s="112"/>
+      <c r="H13" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="73" t="s">
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="74"/>
+      <c r="N13" s="100"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="84" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="80"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="104"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <f>SUM(C16:D16)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>0</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="27">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <v>0</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="30">
         <f>C16</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3565,23 +3745,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3589,21 +3752,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3747,24 +3895,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3780,4 +3926,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2019661-6C48-4B76-8523-584BF03615D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F93BC-D5DA-428D-B16F-283E31820107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -510,12 +510,6 @@
     <t>1F - 3T - 4 - 5T - 6 - 17</t>
   </si>
   <si>
-    <t>1F - 3T - 4 - 5F - 7F - 14…</t>
-  </si>
-  <si>
-    <t>1F - 3T - 4 - 5F - 7T - 8F - 14…</t>
-  </si>
-  <si>
     <t>1F - 3T - 4 - 5F - 7T - 8T - 9T - 10 - 17</t>
   </si>
   <si>
@@ -607,6 +601,51 @@
   </si>
   <si>
     <t>1, 3, 4, 5, 7, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>12.04.2024 00:00:01</t>
+  </si>
+  <si>
+    <t>1F - 3T - 4 - 5F - 7F - 14F-16-17</t>
+  </si>
+  <si>
+    <t>current = 15.04.2024 start = 10.04.204  end = 18.04.2024 interval = 86400</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 5, 7, 14, 16, 17</t>
+  </si>
+  <si>
+    <t>F01_TC07</t>
+  </si>
+  <si>
+    <t>1F - 3T - 4 - 5F - 7T - 8F - 14..</t>
+  </si>
+  <si>
+    <t>1,3,4,5,7,8,14, 15 17</t>
+  </si>
+  <si>
+    <t>no bugsbunny</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">F02. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Afisarea task-rilor (descrierea, data si ora de inceput si intervalul de timp la care se repeta, dat ca numar de ore si minute pentru fiecare task) planificate intr-o anumita perioada de timp, precizata ca data si ora de inceput si data si ora de sfarsit. In cazul in care nu exista task-uri planificate in perioada data de timp, nu se va afisa nimic.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -828,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1287,11 +1326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1351,7 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1378,6 +1427,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,6 +1445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,9 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,9 +1487,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,6 +1499,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,32 +1532,80 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1510,9 +1637,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,81 +1652,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,15 +1687,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:colOff>48113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>579284</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185209</xdr:rowOff>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,8 +1725,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1344084"/>
-          <a:ext cx="4802034" cy="2841625"/>
+          <a:off x="48113" y="1069731"/>
+          <a:ext cx="4846272" cy="3285636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,15 +1792,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>578555</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>524364</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>471696</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>143772</xdr:rowOff>
+      <xdr:colOff>94848</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>173080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1761,8 +1823,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4801305" y="1555750"/>
-          <a:ext cx="4634474" cy="5636522"/>
+          <a:off x="4957152" y="1150572"/>
+          <a:ext cx="4552792" cy="5433566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,29 +2129,29 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2099,76 +2161,76 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="26">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="26">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="26">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>83</v>
       </c>
@@ -2176,23 +2238,23 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2211,407 +2273,396 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:T18"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="I6" s="40" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="Q6" s="40" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="I8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="34">
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="I9" s="38"/>
-      <c r="Q9" s="57" t="s">
+      <c r="C9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="Q9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="34" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="I10" s="48" t="s">
+      <c r="C10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="Q10" s="57" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="57"/>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="46"/>
+      <c r="T10" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="C11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="C12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="Q13" s="40" t="s">
+      <c r="C13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="Q15" s="32" t="s">
+      <c r="C14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="Q15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="Q16" s="35" t="s">
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="Q16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="43" t="s">
+      <c r="R16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="Q17" s="35" t="s">
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="Q17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="43" t="s">
+      <c r="R17" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="Q18" s="35" t="s">
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="Q18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="Q19" s="35" t="s">
+      <c r="R18" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="Q19" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="43" t="s">
+      <c r="R19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="Q20" s="35" t="s">
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="Q20" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="Q21" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="Q22" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="Q21" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21" s="59" t="s">
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="Q23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="S21" s="60"/>
-      <c r="T21" s="61"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="Q22" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="59" t="s">
+      <c r="S23" s="61"/>
+      <c r="T23" s="62"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
+      <c r="Q24" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="S22" s="60"/>
-      <c r="T22" s="61"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="Q23" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="60"/>
-      <c r="T23" s="61"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="Q24" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2628,6 +2679,17 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2643,249 +2705,249 @@
   </sheetPr>
   <dimension ref="B1:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" customWidth="1"/>
+    <col min="15" max="16" width="8.453125" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="39.28515625" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" customWidth="1"/>
-    <col min="22" max="24" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="39.26953125" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" customWidth="1"/>
+    <col min="21" max="21" width="33.54296875" customWidth="1"/>
+    <col min="22" max="24" width="8.81640625" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" customWidth="1"/>
-    <col min="33" max="33" width="4.85546875" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" customWidth="1"/>
-    <col min="35" max="35" width="7.28515625" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" customWidth="1"/>
-    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="32" max="32" width="5.81640625" customWidth="1"/>
+    <col min="33" max="33" width="4.81640625" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" customWidth="1"/>
+    <col min="35" max="35" width="7.26953125" customWidth="1"/>
+    <col min="36" max="36" width="7.453125" customWidth="1"/>
+    <col min="37" max="37" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-    </row>
-    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="73" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+    </row>
+    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="72" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="68" t="s">
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-    </row>
-    <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="71" t="s">
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+    </row>
+    <row r="8" spans="2:37" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="71"/>
+      <c r="C8" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="71" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="65" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="72" t="s">
+      <c r="U8" s="69"/>
+      <c r="V8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="72" t="s">
+      <c r="W8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="72" t="s">
+      <c r="X8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="72" t="s">
+      <c r="Y8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="72" t="s">
+      <c r="Z8" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AA8" s="72" t="s">
+      <c r="AA8" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="72" t="s">
+      <c r="AB8" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="72" t="s">
+      <c r="AC8" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="72" t="s">
+      <c r="AD8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="68">
+      <c r="AE8" s="70">
         <v>0</v>
       </c>
-      <c r="AF8" s="68">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="68">
+      <c r="AF8" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="70">
         <v>2</v>
       </c>
-      <c r="AH8" s="68" t="s">
+      <c r="AH8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="68" t="s">
+      <c r="AI8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="68" t="s">
+      <c r="AJ8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="68" t="s">
+      <c r="AK8" s="70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="73"/>
+    <row r="9" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
@@ -2934,38 +2996,38 @@
       <c r="U9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-    </row>
-    <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+    </row>
+    <row r="10" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -2983,7 +3045,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
@@ -2994,7 +3056,7 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
@@ -3003,26 +3065,26 @@
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -3035,13 +3097,13 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
@@ -3050,7 +3112,7 @@
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
@@ -3059,26 +3121,26 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -3092,11 +3154,11 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3106,7 +3168,7 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
@@ -3115,29 +3177,29 @@
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -3154,7 +3216,7 @@
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
@@ -3162,7 +3224,7 @@
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
@@ -3171,39 +3233,41 @@
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" ht="31" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="E14" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
@@ -3217,13 +3281,13 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -3231,39 +3295,61 @@
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" ht="31" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="U15" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
+      <c r="Z15" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
-      <c r="AE15" s="19"/>
+      <c r="AE15" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
@@ -3271,31 +3357,46 @@
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+    <row r="16" spans="2:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="T16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3312,6 +3413,26 @@
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3326,76 +3447,76 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="78"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="87"/>
+      <c r="L4" s="103"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="101"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3408,10 +3529,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="80"/>
+      <c r="I5" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="105"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3419,11 +3540,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="106" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3441,10 +3562,10 @@
       <c r="H6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="89"/>
+      <c r="I6" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="113"/>
       <c r="K6" s="22" t="s">
         <v>1</v>
       </c>
@@ -3452,11 +3573,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
@@ -3472,10 +3593,10 @@
       <c r="H7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="78"/>
+      <c r="I7" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="103"/>
       <c r="K7" s="21" t="s">
         <v>1</v>
       </c>
@@ -3483,11 +3604,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="21">
         <v>11</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -3503,10 +3624,10 @@
       <c r="H8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="78"/>
+      <c r="I8" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="103"/>
       <c r="K8" s="21" t="s">
         <v>1</v>
       </c>
@@ -3514,11 +3635,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -3534,10 +3655,10 @@
       <c r="H9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78"/>
+      <c r="I9" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="103"/>
       <c r="K9" s="21" t="s">
         <v>1</v>
       </c>
@@ -3545,11 +3666,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3565,10 +3686,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="80"/>
+      <c r="I10" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="105"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3589,131 +3710,150 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92" t="s">
+    <row r="13" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="111" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="92" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="99" t="s">
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="100"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="N13" s="98"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="84" t="s">
+      <c r="N14" s="80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="104"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="89"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="81"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="26">
         <f>SUM(C16:D16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="118">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>134</v>
+      </c>
       <c r="G16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="24">
         <v>0</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="29">
         <f>C16</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="G14:G15"/>
@@ -3730,21 +3870,6 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3752,6 +3877,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3895,22 +4035,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3926,21 +4068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F93BC-D5DA-428D-B16F-283E31820107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA5FEA-A6E9-4224-B3A4-B2023003CB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -549,9 +549,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>current = 12.04.2024</t>
-  </si>
-  <si>
     <t>current = 18.04.2024</t>
   </si>
   <si>
@@ -588,9 +585,6 @@
     <t>Task: name = "task", time = "16.04.2024",  start = "11.04.2024",  end = "15.04.2024", interval = 1, active = true</t>
   </si>
   <si>
-    <t>current = 10.04.2024</t>
-  </si>
-  <si>
     <t>16.04.2024</t>
   </si>
   <si>
@@ -609,9 +603,6 @@
     <t>1F - 3T - 4 - 5F - 7F - 14F-16-17</t>
   </si>
   <si>
-    <t>current = 15.04.2024 start = 10.04.204  end = 18.04.2024 interval = 86400</t>
-  </si>
-  <si>
     <t>1, 3, 4, 5, 7, 14, 16, 17</t>
   </si>
   <si>
@@ -622,9 +613,6 @@
   </si>
   <si>
     <t>1,3,4,5,7,8,14, 15 17</t>
-  </si>
-  <si>
-    <t>no bugsbunny</t>
   </si>
   <si>
     <r>
@@ -646,6 +634,60 @@
       </rPr>
       <t>Afisarea task-rilor (descrierea, data si ora de inceput si intervalul de timp la care se repeta, dat ca numar de ore si minute pentru fiecare task) planificate intr-o anumita perioada de timp, precizata ca data si ora de inceput si data si ora de sfarsit. In cazul in care nu exista task-uri planificate in perioada data de timp, nu se va afisa nimic.</t>
     </r>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>F02_TC07</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>18.04.2024</t>
+  </si>
+  <si>
+    <t>15.04.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
+  </si>
+  <si>
+    <t>current = 10.04.2024, time = 11.04.2024</t>
+  </si>
+  <si>
+    <t>10.04.2024</t>
+  </si>
+  <si>
+    <t>current = 12.04.2024, time = 11.04.2024</t>
+  </si>
+  <si>
+    <t>current = 15.04.2024, start = 10.04.2024  end = 18.04.2024 interval = 86400, time = 10.04.2024</t>
+  </si>
+  <si>
+    <t>current = 15.04.2024, start = 10.04.2024  end = 18.04.2024 interval = 86400</t>
   </si>
 </sst>
 </file>
@@ -867,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1330,18 +1372,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,12 +1416,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1389,9 +1440,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,6 +1481,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1445,48 +1494,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,6 +1548,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,32 +1578,59 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,9 +1647,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1601,70 +1695,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2132,26 +2177,26 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="19.7265625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2161,76 +2206,76 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>83</v>
       </c>
@@ -2238,23 +2283,23 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2277,392 +2322,403 @@
       <selection activeCell="R24" sqref="R24:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="I6" s="41" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="I6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="41" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="I8" s="12" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="33">
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="30">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="I9" s="37"/>
-      <c r="Q9" s="46" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="I9" s="34"/>
+      <c r="Q9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="33" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="I10" s="50" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="I10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="33" t="s">
+      <c r="S10" s="56"/>
+      <c r="T10" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="41" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="Q13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="31" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="Q15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="34" t="s">
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="Q16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="34" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="Q17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="34" t="s">
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="34" t="s">
+      <c r="R18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="34" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="34" t="s">
+      <c r="R20" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="Q21" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="S21" s="61"/>
-      <c r="T21" s="62"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-      <c r="Q22" s="34" t="s">
+      <c r="R21" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="S21" s="59"/>
+      <c r="T21" s="60"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="Q22" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="60" t="s">
+      <c r="R22" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="S22" s="61"/>
-      <c r="T22" s="62"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="Q23" s="34" t="s">
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="Q23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="60" t="s">
+      <c r="R23" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="61"/>
-      <c r="T23" s="62"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
-      <c r="Q24" s="34" t="s">
+      <c r="S23" s="59"/>
+      <c r="T23" s="60"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="Q24" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2679,17 +2735,6 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2705,698 +2750,742 @@
   </sheetPr>
   <dimension ref="B1:AK16"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" customWidth="1"/>
-    <col min="9" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" customWidth="1"/>
-    <col min="15" max="16" width="8.453125" customWidth="1"/>
-    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="39.26953125" customWidth="1"/>
-    <col min="20" max="20" width="25.1796875" customWidth="1"/>
-    <col min="21" max="21" width="33.54296875" customWidth="1"/>
-    <col min="22" max="24" width="8.81640625" customWidth="1"/>
+    <col min="19" max="19" width="39.28515625" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="33.5703125" customWidth="1"/>
+    <col min="22" max="24" width="8.85546875" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="5.81640625" customWidth="1"/>
-    <col min="33" max="33" width="4.81640625" customWidth="1"/>
-    <col min="34" max="34" width="6.7265625" customWidth="1"/>
-    <col min="35" max="35" width="7.26953125" customWidth="1"/>
-    <col min="36" max="36" width="7.453125" customWidth="1"/>
-    <col min="37" max="37" width="6.54296875" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.35">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+    </row>
+    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+    </row>
+    <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="61"/>
+      <c r="C8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="70"/>
+      <c r="T8" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" s="66"/>
+      <c r="V8" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="67">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ8" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK8" s="67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="61"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+    </row>
+    <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+    </row>
+    <row r="11" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-    </row>
-    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-    </row>
-    <row r="8" spans="2:37" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
-      <c r="C8" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="68" t="s">
+      <c r="E11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+    </row>
+    <row r="12" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+    </row>
+    <row r="13" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="2:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="X8" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA8" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB8" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC8" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="70">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="70">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI8" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ8" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK8" s="70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-    </row>
-    <row r="10" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+    </row>
+    <row r="15" spans="2:37" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18" t="s">
+      <c r="H15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="19" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-    </row>
-    <row r="11" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="L15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17" t="s">
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="19" t="s">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-    </row>
-    <row r="12" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+    </row>
+    <row r="16" spans="2:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="19" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-    </row>
-    <row r="13" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-    </row>
-    <row r="14" spans="2:37" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-    </row>
-    <row r="15" spans="2:37" ht="31" x14ac:dyDescent="0.35">
-      <c r="B15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-    </row>
-    <row r="16" spans="2:37" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>108</v>
-      </c>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3413,26 +3502,6 @@
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3445,94 +3514,94 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.1796875" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="99" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="100" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="102" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="103"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="101"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="111"/>
+      <c r="L4" s="79"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="105"/>
+        <v>140</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="81"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3540,358 +3609,407 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
-        <v>9</v>
-      </c>
-      <c r="C6" s="106" t="s">
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>1</v>
-      </c>
       <c r="I6" s="112" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="J6" s="113"/>
-      <c r="K6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
-        <v>10</v>
-      </c>
-      <c r="C7" s="106"/>
+      <c r="K6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="82"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="79"/>
+      <c r="K8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="C10" s="82"/>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="111">
+        <v>1</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
-        <v>11</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
-        <v>12</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="111">
+        <v>86400</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>7</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="2">
+        <v>86400</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="75" t="s">
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77" t="s">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="75" t="s">
+      <c r="G15" s="92"/>
+      <c r="H15" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="97" t="s">
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="98"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="88" t="s">
+      <c r="N15" s="74"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C16" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D16" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E16" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G16" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H16" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J16" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K16" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="94" t="s">
+      <c r="L16" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="96" t="s">
+      <c r="M16" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="N16" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="89"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="81"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="26">
-        <f>SUM(C16:D16)</f>
-        <v>9</v>
-      </c>
-      <c r="C16" s="24">
-        <v>9</v>
-      </c>
-      <c r="D16" s="24">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="102"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="94"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>7</v>
+      </c>
+      <c r="C18" s="21">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E18" s="38">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="26">
-        <f>SUM(J16:K16)</f>
+      <c r="I18" s="23">
+        <f>SUM(J18:K18)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J18" s="21">
         <v>0</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K18" s="24">
         <v>0</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="6" t="s">
+      <c r="L18" s="25"/>
+      <c r="M18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="29">
-        <f>C16</f>
-        <v>9</v>
+      <c r="N18" s="26">
+        <f>C18</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="M13:N13"/>
+  <mergeCells count="33">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4035,24 +4153,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4068,4 +4184,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA5FEA-A6E9-4224-B3A4-B2023003CB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E53FB4-31CB-4811-8DB2-145B8CED3000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -1482,6 +1482,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1494,6 +1500,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1503,9 +1515,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,9 +1542,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,6 +1554,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1557,31 +1587,82 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,12 +1680,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,9 +1695,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,83 +1704,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,12 +2184,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -2331,73 +2331,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="I8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
       <c r="T8" s="30">
         <v>9</v>
       </c>
@@ -2406,19 +2406,19 @@
       <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="I9" s="34"/>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
       <c r="T9" s="30" t="s">
         <v>86</v>
       </c>
@@ -2427,29 +2427,29 @@
       <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="Q10" s="56" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="56"/>
+      <c r="S10" s="46"/>
       <c r="T10" s="30" t="s">
         <v>85</v>
       </c>
@@ -2458,267 +2458,256 @@
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="Q13" s="39" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
       <c r="Q15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
       <c r="Q16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="Q17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
       <c r="Q18" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
       <c r="Q19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="Q20" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="Q21" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="58" t="s">
+      <c r="R21" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="S21" s="59"/>
-      <c r="T21" s="60"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
       <c r="Q22" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="58" t="s">
+      <c r="R22" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
       <c r="Q23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="58" t="s">
+      <c r="R23" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="59"/>
-      <c r="T23" s="60"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="62"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
       <c r="Q24" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2735,6 +2724,17 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2750,7 +2750,7 @@
   </sheetPr>
   <dimension ref="B1:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2785,21 +2785,21 @@
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -2807,192 +2807,192 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
     </row>
     <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="72" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="71" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="67" t="s">
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
     </row>
     <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="64" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="70" t="s">
+      <c r="K8" s="69"/>
+      <c r="L8" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="64" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="70" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="64" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="U8" s="66"/>
-      <c r="V8" s="71" t="s">
+      <c r="U8" s="69"/>
+      <c r="V8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="71" t="s">
+      <c r="W8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="71" t="s">
+      <c r="X8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="71" t="s">
+      <c r="Y8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="71" t="s">
+      <c r="Z8" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AA8" s="71" t="s">
+      <c r="AA8" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="71" t="s">
+      <c r="AB8" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="71" t="s">
+      <c r="AC8" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="71" t="s">
+      <c r="AD8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="67">
+      <c r="AE8" s="70">
         <v>0</v>
       </c>
-      <c r="AF8" s="67">
+      <c r="AF8" s="70">
         <v>1</v>
       </c>
-      <c r="AG8" s="67">
+      <c r="AG8" s="70">
         <v>2</v>
       </c>
-      <c r="AH8" s="67" t="s">
+      <c r="AH8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="67" t="s">
+      <c r="AI8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="67" t="s">
+      <c r="AJ8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="67" t="s">
+      <c r="AK8" s="70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -3041,22 +3041,22 @@
       <c r="U9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
     </row>
     <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -3403,7 +3403,7 @@
       <c r="AK15" s="17"/>
     </row>
     <row r="16" spans="2:37" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3466,26 +3466,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3502,6 +3482,26 @@
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3516,8 +3516,8 @@
   </sheetPr>
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,55 +3537,55 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="78" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="88"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="2" t="s">
         <v>137</v>
       </c>
@@ -3598,10 +3598,10 @@
       <c r="H5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3631,10 +3631,10 @@
       <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="19" t="s">
         <v>106</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
@@ -3662,10 +3662,10 @@
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="18" t="s">
         <v>121</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4" t="s">
         <v>132</v>
       </c>
@@ -3693,10 +3693,10 @@
       <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="18" t="s">
         <v>106</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="4" t="s">
         <v>133</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="18" t="s">
         <v>111</v>
       </c>
@@ -3739,30 +3739,30 @@
       <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="40">
         <v>1</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="111" t="s">
+      <c r="J10" s="76"/>
+      <c r="K10" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="L10" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3770,30 +3770,30 @@
       <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="40">
         <v>86400</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="111" t="s">
+      <c r="J11" s="76"/>
+      <c r="K11" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="111" t="s">
+      <c r="L11" s="40" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="4" t="s">
         <v>136</v>
       </c>
@@ -3817,10 +3817,10 @@
       <c r="H12" s="2">
         <v>86400</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="2" t="s">
         <v>121</v>
       </c>
@@ -3848,83 +3848,83 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="89" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="73" t="s">
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="74"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="99" t="s">
+      <c r="K16" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="107" t="s">
+      <c r="L16" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="109" t="s">
+      <c r="M16" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="85" t="s">
+      <c r="N16" s="88" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="94"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="83"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="38">
-        <v>0.99990000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F18" s="22">
         <v>0</v>
@@ -3969,23 +3969,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -4002,6 +3985,23 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H15:L15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,6 +4010,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4153,22 +4168,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4184,21 +4201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E53FB4-31CB-4811-8DB2-145B8CED3000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DB850-2F0F-4722-AFD8-42499EA33FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,48 +1500,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1554,6 +1554,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,31 +1584,25 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,15 +1611,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1614,9 +1695,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,85 +1707,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2341,18 +2341,18 @@
       <c r="I1" s="43"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
@@ -2393,11 +2393,11 @@
       <c r="I8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
       <c r="T8" s="30">
         <v>9</v>
       </c>
@@ -2406,19 +2406,19 @@
       <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="I9" s="34"/>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
       <c r="T9" s="30" t="s">
         <v>86</v>
       </c>
@@ -2427,29 +2427,29 @@
       <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="Q10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="46"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="30" t="s">
         <v>85</v>
       </c>
@@ -2458,58 +2458,58 @@
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
       <c r="Q13" s="41" t="s">
         <v>49</v>
       </c>
@@ -2521,29 +2521,29 @@
       <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
       <c r="Q15" s="28" t="s">
         <v>15</v>
       </c>
@@ -2554,13 +2554,13 @@
       <c r="T15" s="59"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
       <c r="Q16" s="31" t="s">
         <v>52</v>
       </c>
@@ -2571,13 +2571,13 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
       <c r="Q17" s="31" t="s">
         <v>53</v>
       </c>
@@ -2588,13 +2588,13 @@
       <c r="T17" s="44"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
       <c r="Q18" s="31" t="s">
         <v>55</v>
       </c>
@@ -2605,13 +2605,13 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
       <c r="Q19" s="31" t="s">
         <v>87</v>
       </c>
@@ -2622,13 +2622,13 @@
       <c r="T19" s="44"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
       <c r="Q20" s="31" t="s">
         <v>88</v>
       </c>
@@ -2639,13 +2639,13 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
       <c r="Q21" s="31" t="s">
         <v>89</v>
       </c>
@@ -2656,13 +2656,13 @@
       <c r="T21" s="62"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
       <c r="Q22" s="31" t="s">
         <v>90</v>
       </c>
@@ -2673,13 +2673,13 @@
       <c r="T22" s="62"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
       <c r="Q23" s="31" t="s">
         <v>91</v>
       </c>
@@ -2690,13 +2690,13 @@
       <c r="T23" s="62"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
       <c r="Q24" s="31" t="s">
         <v>92</v>
       </c>
@@ -2708,6 +2708,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2724,17 +2735,6 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,13 +2793,13 @@
       <c r="G1" s="43"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -2807,192 +2807,192 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
     </row>
     <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="66" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="67" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="70" t="s">
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
     </row>
     <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="72"/>
+      <c r="H8" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="68" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="65" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="s">
+      <c r="M8" s="72"/>
+      <c r="N8" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="68" t="s">
+      <c r="O8" s="72"/>
+      <c r="P8" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="65" t="s">
+      <c r="Q8" s="68"/>
+      <c r="R8" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="68" t="s">
+      <c r="S8" s="72"/>
+      <c r="T8" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="67" t="s">
+      <c r="U8" s="68"/>
+      <c r="V8" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="67" t="s">
+      <c r="W8" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="67" t="s">
+      <c r="X8" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="67" t="s">
+      <c r="Y8" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="67" t="s">
+      <c r="Z8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="AA8" s="67" t="s">
+      <c r="AA8" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="67" t="s">
+      <c r="AB8" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="67" t="s">
+      <c r="AC8" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="67" t="s">
+      <c r="AD8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="70">
+      <c r="AE8" s="69">
         <v>0</v>
       </c>
-      <c r="AF8" s="70">
+      <c r="AF8" s="69">
         <v>1</v>
       </c>
-      <c r="AG8" s="70">
+      <c r="AG8" s="69">
         <v>2</v>
       </c>
-      <c r="AH8" s="70" t="s">
+      <c r="AH8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="70" t="s">
+      <c r="AI8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="70" t="s">
+      <c r="AJ8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="70" t="s">
+      <c r="AK8" s="69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -3041,22 +3041,22 @@
       <c r="U9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
     </row>
     <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -3466,6 +3466,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3482,26 +3502,6 @@
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,7 +3517,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,47 +3545,47 @@
       <c r="G1" s="43"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="75" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="76"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="2" t="s">
         <v>137</v>
       </c>
@@ -3598,10 +3598,10 @@
       <c r="H5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="84" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3631,10 +3631,10 @@
       <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="114"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="19" t="s">
         <v>106</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
@@ -3662,10 +3662,10 @@
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="76"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="18" t="s">
         <v>121</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="4" t="s">
         <v>132</v>
       </c>
@@ -3693,10 +3693,10 @@
       <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="18" t="s">
         <v>106</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="107"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="4" t="s">
         <v>133</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="18" t="s">
         <v>111</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="4" t="s">
         <v>134</v>
       </c>
@@ -3755,10 +3755,10 @@
       <c r="H10" s="40">
         <v>1</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="76"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="40" t="s">
         <v>125</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="4" t="s">
         <v>135</v>
       </c>
@@ -3786,10 +3786,10 @@
       <c r="H11" s="40">
         <v>86400</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="40" t="s">
         <v>106</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="4" t="s">
         <v>136</v>
       </c>
@@ -3817,10 +3817,10 @@
       <c r="H12" s="2">
         <v>86400</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="106"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="2" t="s">
         <v>121</v>
       </c>
@@ -3848,83 +3848,83 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="85" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="94" t="s">
+      <c r="G15" s="112"/>
+      <c r="H15" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="100" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="101"/>
+      <c r="N15" s="76"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="92" t="s">
+      <c r="K16" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="97" t="s">
+      <c r="L16" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="99" t="s">
+      <c r="M16" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="88" t="s">
+      <c r="N16" s="87" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="83"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="95"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -3969,6 +3969,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3985,23 +4002,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H15:L15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,21 +4010,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4168,24 +4153,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4201,4 +4184,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DB850-2F0F-4722-AFD8-42499EA33FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8C6AC6-01EC-4807-9DD7-1C4066BE63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="146">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -564,18 +561,6 @@
     <t>1F - 3F - 14T - 15 - 17</t>
   </si>
   <si>
-    <t>F01_TC03</t>
-  </si>
-  <si>
-    <t>F01_TC04</t>
-  </si>
-  <si>
-    <t>F01_TC05</t>
-  </si>
-  <si>
-    <t>F01_TC06</t>
-  </si>
-  <si>
     <t>interval = 0, current = 16.04.2024</t>
   </si>
   <si>
@@ -604,9 +589,6 @@
   </si>
   <si>
     <t>1, 3, 4, 5, 7, 14, 16, 17</t>
-  </si>
-  <si>
-    <t>F01_TC07</t>
   </si>
   <si>
     <t>1F - 3T - 4 - 5F - 7T - 8F - 14..</t>
@@ -688,6 +670,12 @@
   </si>
   <si>
     <t>current = 15.04.2024, start = 10.04.2024  end = 18.04.2024 interval = 86400</t>
+  </si>
+  <si>
+    <t>F02_TC08</t>
+  </si>
+  <si>
+    <t>start = 10.04.2024 08:00 end = 18.04.2024 08:00 current = 10.04.2024 08:00:30</t>
   </si>
 </sst>
 </file>
@@ -909,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1394,11 +1382,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1500,6 +1499,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1509,9 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,9 +1541,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1554,6 +1553,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,31 +1586,82 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,12 +1679,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,9 +1694,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,71 +1709,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,28 +2179,28 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="D1" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>39</v>
@@ -2206,100 +2208,100 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="N7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="N9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="23">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2319,20 +2321,20 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:T24"/>
+      <selection activeCell="R23" sqref="R23:T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="D1" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -2340,21 +2342,21 @@
       <c r="H1" s="42"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="41" t="s">
         <v>46</v>
       </c>
@@ -2379,7 +2381,7 @@
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
@@ -2391,125 +2393,125 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="I8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
       <c r="T8" s="30">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="I9" s="34"/>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
       <c r="T9" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="Q10" s="58" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="58" t="s">
+      <c r="R10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="58"/>
+      <c r="S10" s="46"/>
       <c r="T10" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="Q13" s="41" t="s">
         <v>49</v>
       </c>
@@ -2517,33 +2519,33 @@
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
       <c r="Q15" s="28" t="s">
         <v>15</v>
       </c>
@@ -2553,172 +2555,161 @@
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
       <c r="Q16" s="31" t="s">
         <v>52</v>
       </c>
       <c r="R16" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="Q17" s="31" t="s">
         <v>53</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
       <c r="Q18" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
       <c r="Q19" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="Q20" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="Q21" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R21" s="60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S21" s="61"/>
       <c r="T21" s="62"/>
     </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
       <c r="Q22" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R22" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S22" s="61"/>
       <c r="T22" s="62"/>
     </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
       <c r="Q23" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S23" s="61"/>
       <c r="T23" s="62"/>
     </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
       <c r="Q24" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R24" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R24:T24"/>
@@ -2735,6 +2726,17 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,251 +2750,251 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AK16"/>
+  <dimension ref="B1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" customWidth="1"/>
+    <col min="15" max="16" width="8.453125" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="39.28515625" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" customWidth="1"/>
-    <col min="22" max="24" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="39.26953125" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" customWidth="1"/>
+    <col min="21" max="21" width="33.54296875" customWidth="1"/>
+    <col min="22" max="24" width="8.81640625" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" customWidth="1"/>
-    <col min="33" max="33" width="4.85546875" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" customWidth="1"/>
-    <col min="35" max="35" width="7.28515625" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" customWidth="1"/>
-    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="32" max="32" width="5.81640625" customWidth="1"/>
+    <col min="33" max="33" width="4.81640625" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" customWidth="1"/>
+    <col min="35" max="35" width="7.26953125" customWidth="1"/>
+    <col min="36" max="36" width="7.453125" customWidth="1"/>
+    <col min="37" max="37" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="D1" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-    </row>
-    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="74" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+    </row>
+    <row r="7" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="69" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-    </row>
-    <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="70" t="s">
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+    </row>
+    <row r="8" spans="2:37" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="71"/>
+      <c r="C8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="72" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="66" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="72" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="68"/>
-      <c r="V8" s="73" t="s">
+      <c r="U8" s="69"/>
+      <c r="V8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="73" t="s">
+      <c r="W8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="73" t="s">
+      <c r="X8" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="73" t="s">
+      <c r="AA8" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AA8" s="73" t="s">
+      <c r="AB8" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="73" t="s">
+      <c r="AC8" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="73" t="s">
+      <c r="AD8" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE8" s="69">
+      <c r="AE8" s="70">
         <v>0</v>
       </c>
-      <c r="AF8" s="69">
+      <c r="AF8" s="70">
         <v>1</v>
       </c>
-      <c r="AG8" s="69">
+      <c r="AG8" s="70">
         <v>2</v>
       </c>
-      <c r="AH8" s="69" t="s">
+      <c r="AH8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="69" t="s">
+      <c r="AI8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="69" t="s">
+      <c r="AJ8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="69" t="s">
+      <c r="AK8" s="70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
+    <row r="9" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -3041,38 +3043,38 @@
       <c r="U9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-    </row>
-    <row r="10" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+    </row>
+    <row r="10" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -3090,7 +3092,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -3101,7 +3103,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
@@ -3110,26 +3112,26 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -3142,13 +3144,13 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -3157,7 +3159,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" s="17"/>
       <c r="AG11" s="17"/>
@@ -3166,26 +3168,26 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -3199,11 +3201,11 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -3213,7 +3215,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17"/>
@@ -3222,29 +3224,29 @@
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -3261,7 +3263,7 @@
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
@@ -3269,7 +3271,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
@@ -3278,41 +3280,41 @@
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="2:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" ht="31" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -3326,13 +3328,13 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
@@ -3340,38 +3342,38 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="2:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -3379,21 +3381,21 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -3402,45 +3404,45 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
     </row>
-    <row r="16" spans="2:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" ht="31" x14ac:dyDescent="0.35">
       <c r="B16" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
       <c r="T16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -3449,14 +3451,14 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
@@ -3464,28 +3466,16 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
+    <row r="17" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3502,6 +3492,26 @@
     <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3516,92 +3526,92 @@
   </sheetPr>
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.81640625" customWidth="1"/>
+    <col min="12" max="12" width="54.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="D1" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="80" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="81"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="90"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="104"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="83"/>
+        <v>134</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3609,226 +3619,226 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="92"/>
+      <c r="I6" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="114"/>
       <c r="K6" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="81"/>
+      <c r="I7" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="76"/>
       <c r="K7" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="81"/>
+      <c r="I8" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="76"/>
       <c r="K8" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="81"/>
+      <c r="I9" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="76"/>
       <c r="K9" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H10" s="40">
         <v>1</v>
       </c>
-      <c r="I10" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="81"/>
+      <c r="I10" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="76"/>
       <c r="K10" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H11" s="40">
         <v>86400</v>
       </c>
-      <c r="I11" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="81"/>
+      <c r="I11" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="76"/>
       <c r="K11" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="H12" s="2">
         <v>86400</v>
       </c>
-      <c r="I12" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="83"/>
+      <c r="I12" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="106"/>
       <c r="K12" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3841,92 +3851,92 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
+    <row r="15" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="111" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="93" t="s">
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="75" t="s">
+      <c r="N15" s="101"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="76"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="F16" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="J16" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="96" t="s">
+      <c r="K16" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="102" t="s">
+      <c r="M16" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="104" t="s">
+      <c r="N16" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="87" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="95"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="83"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="23">
         <v>7</v>
       </c>
@@ -3943,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="23">
         <f>SUM(J18:K18)</f>
@@ -3960,7 +3970,7 @@
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="26">
         <f>C18</f>
@@ -3969,23 +3979,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -4002,6 +3995,23 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H15:L15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,6 +4020,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4153,22 +4178,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4184,21 +4211,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>